--- a/practices/quant/quantlib/Hagan/studies.xlsx
+++ b/practices/quant/quantlib/Hagan/studies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jungjaeyong/projects/practices/quant/quantlib/Hagan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A391CE-10F3-CC48-860D-B81FE870FC0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F575EBC-EAAB-BF48-A2AE-8CCDFC19A941}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26000" activeTab="1" xr2:uid="{29E8E6BA-D5AF-644B-80B0-55A4AEFDED11}"/>
   </bookViews>
@@ -2473,7 +2473,7 @@
   <dimension ref="A3:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
